--- a/erian/src/main/resources/templates/energy_export_template.xlsx
+++ b/erian/src/main/resources/templates/energy_export_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="14670" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Total</t>
   </si>
@@ -33,25 +34,19 @@
     <t>NIEO</t>
   </si>
   <si>
-    <t>SPMS</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${results}" var="result"&gt;</t>
   </si>
   <si>
     <t>${result.dateTime}</t>
   </si>
   <si>
-    <t>${result.spms}</t>
-  </si>
-  <si>
-    <t>$[B3+C3+D3]</t>
-  </si>
-  <si>
     <t>${result.nieo}</t>
   </si>
   <si>
     <t>${result.nanyang}</t>
+  </si>
+  <si>
+    <t>$[B3+C3]</t>
   </si>
 </sst>
 </file>
@@ -443,17 +438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,35 +459,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -506,7 +491,6 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
